--- a/src/dotnetCampus.Ipc.Analyzers/分析器诊断.xlsx
+++ b/src/dotnetCampus.Ipc.Analyzers/分析器诊断.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\dotnetCampus\dotnetCampus.Ipc\src\dotnetCampus.Ipc.Analyzers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136C2866-F70D-4803-8A95-CDEF1127B6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C54DDA-BEEF-46DB-AD7C-5C89B02A1357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{016DEF33-4F71-40B1-9C92-0284BF32306C}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{016DEF33-4F71-40B1-9C92-0284BF32306C}"/>
   </bookViews>
   <sheets>
     <sheet name="诊断列表" sheetId="1" r:id="rId1"/>
@@ -36,16 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="359">
   <si>
     <t>分析器ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>原ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用途</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,9 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DIPC001</t>
-  </si>
-  <si>
     <t>Generator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,9 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DIPC003</t>
-  </si>
-  <si>
     <t>生成代码时出现已知错误。本生成器不会报告此错误，因为后续编译器会准确报告之。</t>
   </si>
   <si>
@@ -117,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DIPC011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Error</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,25 +115,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DIPC020</t>
-  </si>
-  <si>
-    <t>DIPC101</t>
-  </si>
-  <si>
-    <t>DIPC102</t>
-  </si>
-  <si>
-    <t>DIPC121</t>
-  </si>
-  <si>
     <t>IpcShape</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DIPC122</t>
-  </si>
-  <si>
     <t>IpcProperty</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,9 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DIPC120</t>
-  </si>
-  <si>
     <t>IPC 契约类型必须是接口，但 {0} 不是。</t>
   </si>
   <si>
@@ -174,12 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DIPC004</t>
-  </si>
-  <si>
-    <t>DIPC123</t>
-  </si>
-  <si>
     <t>Hidden</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,15 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DIPC130</t>
-  </si>
-  <si>
-    <t>DIPC022</t>
-  </si>
-  <si>
-    <t>DIPC103</t>
-  </si>
-  <si>
     <t>0 毫秒的超时时间相当于不设置超时，因此不需要设置此属性。</t>
   </si>
   <si>
@@ -263,9 +216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DIPC124</t>
-  </si>
-  <si>
     <t>IPC 默认值 {0} 与 {1} 属性的类型不匹配。</t>
   </si>
   <si>
@@ -276,15 +226,6 @@
     <t>IPC 默认值 {0} 与 {1} 方法的返回值类型不匹配。</t>
   </si>
   <si>
-    <t>DIPC125</t>
-  </si>
-  <si>
-    <t>DIPC126</t>
-  </si>
-  <si>
-    <t>DIPC127</t>
-  </si>
-  <si>
     <t>试图将 object 类型的默认值设置为代码片段 {0}。请注意，这里的字符串将被编译为代码片段，如需使用字符串，请修改为“@"""{0}"""”。</t>
   </si>
   <si>
@@ -299,12 +240,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DIPC128</t>
-  </si>
-  <si>
-    <t>DIPC129</t>
-  </si>
-  <si>
     <t>字符串中的代码片段 {0} 在当前上下文下无法被解析。</t>
   </si>
   <si>
@@ -1181,6 +1116,122 @@
   </si>
   <si>
     <t>IPC266</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPC248</t>
+  </si>
+  <si>
+    <t>IPC248</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性 {0} 的类型 {1} 不支持通过 IPC 传输。请确保类型是基础类型、可被 Json 序列化的类型或标记了 IpcPublic 的 IPC 公开类型。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPC270</t>
+  </si>
+  <si>
+    <t>IPC270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法参数 {0} 的类型 {1} 不支持通过 IPC 传输。请确保类型是基础类型、可被 Json 序列化的类型或标记了 IpcPublic 的 IPC 公开类型。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPC271</t>
+  </si>
+  <si>
+    <t>IPC271</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法返回值 {0} 的类型 {1} 不支持通过 IPC 传输。请确保类型是基础类型、可被 Json 序列化的类型或标记了 IpcPublic 的 IPC 公开类型。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPC272</t>
+  </si>
+  <si>
+    <t>IPC272</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛型方法无法成为 IPC 成员，因为无法在运行时协商原本应该在编译时确定的泛型类型。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPC248_Message</t>
+  </si>
+  <si>
+    <t>不支持的 IPC 属性类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The property type is not supported</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The type {1} of the property {0} is not supported for an IPC type. Only the primary types, the types that can be serialized via JSON, or the types that are marked with the IpcPublic can be IPC property types.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPC270_Message</t>
+  </si>
+  <si>
+    <t>IPC271_Message</t>
+  </si>
+  <si>
+    <t>IPC272_Message</t>
+  </si>
+  <si>
+    <t>不支持泛型 IPC 方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不支持的 IPC 方法参数类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不支持的 IPC 方法返回值类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The method parameter type is not supported</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The method return type is not supported</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generic methods are not supported</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generic methods are not supported, because we cannot determine a generic type at runtime which should have been determined at compile time.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法 {0} 的返回值类型 {1} 不支持通过 IPC 传输。请确保类型是基础类型、可被 Json 序列化的类型或标记了 IpcPublic 的 IPC 公开类型。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The type {1} of the method {0} return is not supported for an IPC type. Only the primary types, the types that can be serialized via JSON, or the types that are marked with the IpcPublic can be IPC types.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The type {2} of the method {0} pamameter {1} is not supported for an IPC type. Only the primary types, the types that can be serialized via JSON, or the types that are marked with the IpcPublic can be IPC types.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法 {0} 参数 {1} 的类型 {2} 不支持通过 IPC 传输。请确保类型是基础类型、可被 Json 序列化的类型或标记了 IpcPublic 的 IPC 公开类型。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The string {0} is treated as a code snippet and will be set to an object type. If you want to set the original string to it, use @"""{0}""" instead.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1278,11 +1329,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B259D058-BFC2-421E-89E2-9905F844B7BA}" name="Table1" displayName="Table1" ref="A1:F41" totalsRowShown="0">
-  <autoFilter ref="A1:F41" xr:uid="{B259D058-BFC2-421E-89E2-9905F844B7BA}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B259D058-BFC2-421E-89E2-9905F844B7BA}" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
+  <autoFilter ref="A1:E45" xr:uid="{B259D058-BFC2-421E-89E2-9905F844B7BA}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{6DC7072B-7F6A-4138-A934-289C22C39209}" name="分析器ID"/>
-    <tableColumn id="2" xr3:uid="{3CD69B8A-E588-4757-BA78-3BCB2FC90B95}" name="原ID"/>
     <tableColumn id="5" xr3:uid="{80B69807-CDA4-4920-9718-D5D9D63F2137}" name="分类"/>
     <tableColumn id="6" xr3:uid="{F707450A-FDFE-4C9B-B7BA-9485EA30B06C}" name="级别"/>
     <tableColumn id="4" xr3:uid="{2E01D203-7712-4F7F-A95D-618CB5C543E0}" name="来源"/>
@@ -1305,15 +1355,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{372A9E0F-37ED-438A-83FF-596B0B2A242F}" name="Table3" displayName="Table3" ref="A1:C90" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3">
-  <autoFilter ref="A1:C90" xr:uid="{372A9E0F-37ED-438A-83FF-596B0B2A242F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C90">
-    <sortCondition ref="A1:A90"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{372A9E0F-37ED-438A-83FF-596B0B2A242F}" name="Table3" displayName="Table3" ref="A1:C98" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:C98" xr:uid="{372A9E0F-37ED-438A-83FF-596B0B2A242F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C98">
+    <sortCondition ref="A1:A98"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{607191F8-948E-42BA-B1C5-A642CE155871}" name="Key" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{E8450F63-E36A-4BA3-8BD8-22220E8E871B}" name="en-US" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{76B906D1-95EC-402D-9BA7-34487A4AC19E}" name="zh-CN" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{607191F8-948E-42BA-B1C5-A642CE155871}" name="Key" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{E8450F63-E36A-4BA3-8BD8-22220E8E871B}" name="en-US" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{76B906D1-95EC-402D-9BA7-34487A4AC19E}" name="zh-CN" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1616,795 +1666,784 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B3849E-6A2A-4E05-BD73-8B5C6CB6E097}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="90.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="90.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>329</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>99</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>100</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>332</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>335</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>338</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>137</v>
+      </c>
+      <c r="B45" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" t="s">
         <v>18</v>
       </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>117</v>
-      </c>
-      <c r="B20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>118</v>
-      </c>
-      <c r="B21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>120</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>121</v>
-      </c>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>122</v>
-      </c>
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>123</v>
-      </c>
-      <c r="B26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>124</v>
-      </c>
-      <c r="B27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>125</v>
-      </c>
-      <c r="B28" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>126</v>
-      </c>
-      <c r="B29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>127</v>
-      </c>
-      <c r="B30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>128</v>
-      </c>
-      <c r="B31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>130</v>
-      </c>
-      <c r="C32" t="s">
-        <v>157</v>
-      </c>
-      <c r="D32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>145</v>
-      </c>
-      <c r="C33" t="s">
-        <v>157</v>
-      </c>
-      <c r="D33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>146</v>
-      </c>
-      <c r="C34" t="s">
-        <v>157</v>
-      </c>
-      <c r="D34" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>147</v>
-      </c>
-      <c r="C35" t="s">
-        <v>157</v>
-      </c>
-      <c r="D35" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>148</v>
-      </c>
-      <c r="C36" t="s">
-        <v>157</v>
-      </c>
-      <c r="D36" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>149</v>
-      </c>
-      <c r="C37" t="s">
-        <v>157</v>
-      </c>
-      <c r="D37" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>150</v>
-      </c>
-      <c r="C38" t="s">
-        <v>157</v>
-      </c>
-      <c r="D38" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>151</v>
-      </c>
-      <c r="C39" t="s">
-        <v>157</v>
-      </c>
-      <c r="D39" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>152</v>
-      </c>
-      <c r="C40" t="s">
-        <v>157</v>
-      </c>
-      <c r="D40" t="s">
-        <v>22</v>
-      </c>
-      <c r="E40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>158</v>
-      </c>
-      <c r="B41" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" t="s">
-        <v>157</v>
-      </c>
-      <c r="D41" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" t="s">
-        <v>162</v>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2434,110 +2473,110 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2551,9 +2590,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBCDF099-936E-419F-BE0B-9CD64722FC44}">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2563,992 +2604,1080 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>119</v>
+        <v>328</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>254</v>
+        <v>340</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>255</v>
+        <v>330</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>210</v>
+        <v>285</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>179</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>211</v>
+        <v>286</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>280</v>
+        <v>99</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>121</v>
+        <v>259</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>237</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>348</v>
+        <v>103</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>297</v>
+        <v>203</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>239</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>347</v>
+        <v>264</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>296</v>
+        <v>204</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>126</v>
+        <v>327</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>226</v>
+        <v>276</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>227</v>
+        <v>275</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>69</v>
+        <v>223</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>228</v>
+        <v>358</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>334</v>
+        <v>208</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>317</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>308</v>
+        <v>267</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>331</v>
+        <v>209</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>145</v>
+        <v>331</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>131</v>
+        <v>339</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>146</v>
+        <v>334</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>135</v>
+        <v>357</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>147</v>
+        <v>337</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>137</v>
+        <v>354</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>205</v>
+        <v>310</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="C84" s="1" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>345</v>
+        <v>127</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>330</v>
+        <v>184</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>159</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>198</v>
+        <v>318</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>199</v>
+        <v>319</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>161</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3556,7 +3685,7 @@
     <sortCondition ref="A2:A21"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:A90">
+  <conditionalFormatting sqref="A2:A98">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/dotnetCampus.Ipc.Analyzers/分析器诊断.xlsx
+++ b/src/dotnetCampus.Ipc.Analyzers/分析器诊断.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\dotnetCampus\dotnetCampus.Ipc\src\dotnetCampus.Ipc.Analyzers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C54DDA-BEEF-46DB-AD7C-5C89B02A1357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17B273B-152D-4EA5-893E-3A3449C34852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{016DEF33-4F71-40B1-9C92-0284BF32306C}"/>
   </bookViews>
@@ -775,9 +775,6 @@
     <t>IPC 已知编译错误</t>
   </si>
   <si>
-    <t>IpcShape 标记的契约类型是 {1}，但是 {0} 却并没有实现这个接口。</t>
-  </si>
-  <si>
     <t>不支持的 IPC 成员 {0}。IPC 成员仅支持属性、方法和事件，不支持其他类型。</t>
   </si>
   <si>
@@ -928,9 +925,6 @@
     <t>An known compiler error occurred when generating IPC types. We'll not report it because the compiler will do this.</t>
   </si>
   <si>
-    <t>{0} does not implement the contract type {1} that the IpcShape marked.</t>
-  </si>
-  <si>
     <t>Only properties, methods and events are supported</t>
   </si>
   <si>
@@ -1232,6 +1226,14 @@
   </si>
   <si>
     <t>The string {0} is treated as a code snippet and will be set to an object type. If you want to set the original string to it, use @"""{0}""" instead.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0} does not fully implement the contract type {1} that the IpcShape marked.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0} 标记了 IPC 代理壳契约类型是 {1}，却并没有（完全）实现这个接口。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1291,14 +1293,7 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1313,7 +1308,14 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1355,15 +1357,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{372A9E0F-37ED-438A-83FF-596B0B2A242F}" name="Table3" displayName="Table3" ref="A1:C98" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{372A9E0F-37ED-438A-83FF-596B0B2A242F}" name="Table3" displayName="Table3" ref="A1:C98" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:C98" xr:uid="{372A9E0F-37ED-438A-83FF-596B0B2A242F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C98">
     <sortCondition ref="A1:A98"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{607191F8-948E-42BA-B1C5-A642CE155871}" name="Key" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{E8450F63-E36A-4BA3-8BD8-22220E8E871B}" name="en-US" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{76B906D1-95EC-402D-9BA7-34487A4AC19E}" name="zh-CN" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{607191F8-948E-42BA-B1C5-A642CE155871}" name="Key" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{E8450F63-E36A-4BA3-8BD8-22220E8E871B}" name="en-US" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{76B906D1-95EC-402D-9BA7-34487A4AC19E}" name="zh-CN" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1668,7 +1670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B3849E-6A2A-4E05-BD73-8B5C6CB6E097}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E33" sqref="E33:E35"/>
     </sheetView>
   </sheetViews>
@@ -2040,7 +2042,7 @@
     </row>
     <row r="22" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B22" t="s">
         <v>40</v>
@@ -2052,7 +2054,7 @@
         <v>11</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -2227,7 +2229,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B33" t="s">
         <v>39</v>
@@ -2239,12 +2241,12 @@
         <v>11</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B34" t="s">
         <v>39</v>
@@ -2256,12 +2258,12 @@
         <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B35" t="s">
         <v>39</v>
@@ -2273,7 +2275,7 @@
         <v>11</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -2592,8 +2594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBCDF099-936E-419F-BE0B-9CD64722FC44}">
   <dimension ref="A1:C98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2604,13 +2606,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>308</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2626,10 +2628,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>145</v>
@@ -2640,7 +2642,7 @@
         <v>79</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>220</v>
@@ -2648,10 +2650,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -2662,18 +2664,18 @@
         <v>80</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -2692,7 +2694,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>186</v>
@@ -2714,7 +2716,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>188</v>
@@ -2736,7 +2738,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>182</v>
@@ -2747,7 +2749,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>183</v>
@@ -2758,7 +2760,7 @@
     </row>
     <row r="15" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>184</v>
@@ -2780,7 +2782,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>173</v>
@@ -2802,7 +2804,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>175</v>
@@ -2813,7 +2815,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>176</v>
@@ -2824,13 +2826,13 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>272</v>
+        <v>357</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>221</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -2838,18 +2840,18 @@
         <v>86</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>212</v>
@@ -2860,7 +2862,7 @@
         <v>87</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>150</v>
@@ -2868,13 +2870,13 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -2890,7 +2892,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>193</v>
@@ -2901,7 +2903,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>194</v>
@@ -2915,18 +2917,18 @@
         <v>89</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>214</v>
@@ -2937,18 +2939,18 @@
         <v>90</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>41</v>
@@ -2967,7 +2969,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>180</v>
@@ -2989,7 +2991,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>190</v>
@@ -3000,7 +3002,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>182</v>
@@ -3011,7 +3013,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>191</v>
@@ -3033,7 +3035,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>198</v>
@@ -3055,7 +3057,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>200</v>
@@ -3077,7 +3079,7 @@
     </row>
     <row r="44" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>206</v>
@@ -3099,7 +3101,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>207</v>
@@ -3121,7 +3123,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>209</v>
@@ -3132,24 +3134,24 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -3157,21 +3159,21 @@
         <v>98</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -3187,7 +3189,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>190</v>
@@ -3198,7 +3200,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>182</v>
@@ -3209,7 +3211,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>191</v>
@@ -3231,7 +3233,7 @@
     </row>
     <row r="58" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>196</v>
@@ -3253,7 +3255,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>211</v>
@@ -3275,7 +3277,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>202</v>
@@ -3297,7 +3299,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>204</v>
@@ -3308,10 +3310,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>218</v>
@@ -3319,13 +3321,13 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -3341,10 +3343,10 @@
     </row>
     <row r="68" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>50</v>
@@ -3363,7 +3365,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>207</v>
@@ -3385,7 +3387,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>209</v>
@@ -3396,68 +3398,68 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -3465,18 +3467,18 @@
         <v>108</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>112</v>
@@ -3487,18 +3489,18 @@
         <v>124</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>110</v>
@@ -3509,18 +3511,18 @@
         <v>125</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>114</v>
@@ -3531,18 +3533,18 @@
         <v>126</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>116</v>
@@ -3553,15 +3555,15 @@
         <v>127</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>184</v>
@@ -3575,18 +3577,18 @@
         <v>128</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>118</v>
@@ -3597,18 +3599,18 @@
         <v>129</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>120</v>
@@ -3619,18 +3621,18 @@
         <v>130</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>122</v>
@@ -3638,21 +3640,21 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>138</v>
@@ -3666,12 +3668,12 @@
         <v>177</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>178</v>
@@ -3686,11 +3688,12 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:A98">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>